--- a/biology/Botanique/Pediocactus/Pediocactus.xlsx
+++ b/biology/Botanique/Pediocactus/Pediocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pediocactus est un genre qui regroupe plusieurs espèces de cactus, plantes de la  famille des Cactaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Pediocactus sont composées d'une tige verte (vert foncé ou vert bleuâtre selon les espèces), quasi hémisphérique, de taille variable (1 à 20 cm de haut ; 1 à 15 cm de diamètre). 
 Ces cactus sont épineux mais le nombre, la couleur et l'orientation des épines varient en fonction des espèces ; elles peuvent être droites ou incurvées, lisses ou rugueuses. Il y a en général de 0 à 10 épines centrales grises à blanc pâle de 5 à 32 mm de long et de 3 à 35 épines radiales rougeâtres à blanchâtres, de 1 à 21 mm de long. 
 Les fleurs (solitaires ou multiples selon les espèces) sont situées à proximité de l'apex, leur couleur va du blanc ou jaune au rose ou magenta. Elles sont campanulées, et mesurent de 10 à 25 mm de diamètre. 
-Le fruit est sphérique ou ovoïde ou en forme de court cylindrique ; sa couleur peut-être rose clair, vert ou jaune verdâtre. Sa déhiscence est verticale. La graine est sphérique ou ovoïde, de couleur brun sombre[1].
+Le fruit est sphérique ou ovoïde ou en forme de court cylindrique ; sa couleur peut-être rose clair, vert ou jaune verdâtre. Sa déhiscence est verticale. La graine est sphérique ou ovoïde, de couleur brun sombre.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve les membres de ce genre dans tout l'Ouest des États-Unis, du sud (Arizona, New Mexico) au centre (Colorado, Utah, Nevada, Oregon, Idaho, Wyoming) et même jusqu’au nord dans l’État de Washington et du Montana[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve les membres de ce genre dans tout l'Ouest des États-Unis, du sud (Arizona, New Mexico) au centre (Colorado, Utah, Nevada, Oregon, Idaho, Wyoming) et même jusqu’au nord dans l’État de Washington et du Montana.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pediocactus bradyi L.D.Benson
 Pediocactus despainii S.L.Welsh &amp; Goodrich
@@ -616,7 +634,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Navajoa Croizat
 Pilocanthus B.W.Benson &amp; Backeb.
